--- a/RVD_Predictor_Analysis/results/ExcelFiles/H3N2_Only.xlsx
+++ b/RVD_Predictor_Analysis/results/ExcelFiles/H3N2_Only.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <si>
     <t xml:space="preserve">ACVR1B</t>
   </si>
@@ -26,18 +26,12 @@
     <t xml:space="preserve">CCL4</t>
   </si>
   <si>
-    <t xml:space="preserve">CD8A</t>
-  </si>
-  <si>
     <t xml:space="preserve">CD8B</t>
   </si>
   <si>
     <t xml:space="preserve">COX15</t>
   </si>
   <si>
-    <t xml:space="preserve">CTSB</t>
-  </si>
-  <si>
     <t xml:space="preserve">ELOVL6</t>
   </si>
   <si>
@@ -107,9 +101,21 @@
     <t xml:space="preserve">COCH</t>
   </si>
   <si>
+    <t xml:space="preserve">FADS2</t>
+  </si>
+  <si>
     <t xml:space="preserve">FGFR1</t>
   </si>
   <si>
+    <t xml:space="preserve">GLTP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSTT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAMP</t>
+  </si>
+  <si>
     <t xml:space="preserve">IGLC1</t>
   </si>
   <si>
@@ -134,18 +140,36 @@
     <t xml:space="preserve">SPON1</t>
   </si>
   <si>
+    <t xml:space="preserve">TCL1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPPP3</t>
+  </si>
+  <si>
     <t xml:space="preserve">VPREB3</t>
   </si>
   <si>
+    <t xml:space="preserve">WASL</t>
+  </si>
+  <si>
     <t xml:space="preserve">ADIPOR2</t>
   </si>
   <si>
+    <t xml:space="preserve">ATRX</t>
+  </si>
+  <si>
     <t xml:space="preserve">BCL2A1</t>
   </si>
   <si>
+    <t xml:space="preserve">BGN</t>
+  </si>
+  <si>
     <t xml:space="preserve">CD40</t>
   </si>
   <si>
+    <t xml:space="preserve">CDCA8</t>
+  </si>
+  <si>
     <t xml:space="preserve">DDX39A</t>
   </si>
   <si>
@@ -155,9 +179,15 @@
     <t xml:space="preserve">EIF4H</t>
   </si>
   <si>
+    <t xml:space="preserve">ERBB2</t>
+  </si>
+  <si>
     <t xml:space="preserve">ESR1</t>
   </si>
   <si>
+    <t xml:space="preserve">EZR</t>
+  </si>
+  <si>
     <t xml:space="preserve">F7</t>
   </si>
   <si>
@@ -176,18 +206,36 @@
     <t xml:space="preserve">HGF</t>
   </si>
   <si>
+    <t xml:space="preserve">HNF4A</t>
+  </si>
+  <si>
     <t xml:space="preserve">IDH3B</t>
   </si>
   <si>
+    <t xml:space="preserve">IGF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LMNA</t>
+  </si>
+  <si>
     <t xml:space="preserve">LTB</t>
   </si>
   <si>
     <t xml:space="preserve">MARCH6</t>
   </si>
   <si>
+    <t xml:space="preserve">MCM4</t>
+  </si>
+  <si>
     <t xml:space="preserve">MYH11</t>
   </si>
   <si>
+    <t xml:space="preserve">NF1</t>
+  </si>
+  <si>
     <t xml:space="preserve">NR3C1</t>
   </si>
   <si>
@@ -197,6 +245,9 @@
     <t xml:space="preserve">PDLIM5</t>
   </si>
   <si>
+    <t xml:space="preserve">PRMT2</t>
+  </si>
+  <si>
     <t xml:space="preserve">PRPF31</t>
   </si>
   <si>
@@ -264,9 +315,6 @@
   </si>
   <si>
     <t xml:space="preserve">CASP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD36</t>
   </si>
   <si>
     <t xml:space="preserve">CD74</t>
@@ -1255,6 +1303,86 @@
         <v>113</v>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
